--- a/biology/Botanique/Liste_des_parcs_et_jardins_de_Québec/Liste_des_parcs_et_jardins_de_Québec.xlsx
+++ b/biology/Botanique/Liste_des_parcs_et_jardins_de_Québec/Liste_des_parcs_et_jardins_de_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_et_jardins_de_Qu%C3%A9bec</t>
+          <t>Liste_des_parcs_et_jardins_de_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_et_jardins_de_Qu%C3%A9bec</t>
+          <t>Liste_des_parcs_et_jardins_de_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Cité–Limoilou
-Vieux-Québec—Cap-Blanc—colline Parlementaire
+          <t>La Cité–Limoilou</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vieux-Québec—Cap-Blanc—colline Parlementaire
 Bassin Brown (boulevard Champlain)
 Jardin Jeanne-d'Arc (avenue Wilfrid-Laurier)
 Parc de l'Amérique-Latine (boulevard  Jean-Lesage, palais de justice)
@@ -587,9 +604,43 @@
 Maizerets
 Domaine de Maizerets (boulevard Montmorency)
 Parc Bardy (rue Adjutor-Rivard et avenue Bardy)
-Parc Ferland (8e Avenue)
-Les Rivières
-Vanier
+Parc Ferland (8e Avenue)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Québec</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Parcs par arrondissement</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les Rivières</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vanier
 Parc Jean-Paul-Nolin (320, rue Chabot)
 Parc Victorin-Beaucage (380, rue Beaucage)
 Parc linéaire des rivières Saint-Charles et du Berger
@@ -605,9 +656,43 @@
 Neufchâtel-Est–Lebourgneuf
 Parc de l'Escarpement (rue Le Mesnil, boulevard des Galeries)
 Parc le Page (rue le Page)
-Parc Prévert (1476, rue Virginia-Woolf)
-Sainte-Foy–Sillery–Cap-Rouge
-Sillery
+Parc Prévert (1476, rue Virginia-Woolf)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Québec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parcs par arrondissement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sainte-Foy–Sillery–Cap-Rouge</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sillery
 Parc du Bois-de-Coulonge (1215, Grande Allée Ouest)
 Villa Bagatelle (1563, chemin Saint-Louis)
 Domaine Cataraqui (2141, chemin Saint-Louis)
@@ -653,13 +738,82 @@
 			Villa Bagatelle.
 			Domaine Cataraqui.
 			Boisé de Tequenonday.
-Charlesbourg
-Parc de la Montagne-des-Roches (boulevard Jean-Talon Est, rue de la Montagne-des-Roches)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Québec</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Parcs par arrondissement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Charlesbourg</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Parc de la Montagne-des-Roches (boulevard Jean-Talon Est, rue de la Montagne-des-Roches)
 Parc des Moulins (ancien jardin zoologique, 8191, avenue du Zoo)
 Parc des Verveines (avenue des Platanes)
-Domaine Notre-Dame-des-Bois (boulevard du Lac, rue de Genève)
-Beauport
-Chutes-Montmorency
+Domaine Notre-Dame-des-Bois (boulevard du Lac, rue de Genève)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Québec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Parcs par arrondissement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Beauport</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chutes-Montmorency
 Parc de la Chute-Montmorency (2490, avenue Royale)
 Chalet Vachon (55, rue Vachon)
 Parc Blancardin
@@ -682,8 +836,43 @@
 Baie de Beauport
 			Parc Cartier-Brébeuf sur les berges de la rivière Saint-Charles.
 			Parc Sylvain Lelièvre, 4e Avenue.
-La Haute-Saint-Charles
-Loretteville
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_jardins_de_Québec</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_jardins_de_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Parcs par arrondissement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La Haute-Saint-Charles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loretteville
 Parc linéaire des rivières Saint-Charles et du Berger
 Parc Johnny-Parent (boulevard Johnny-Parent)
 Parc Gaby-Pleau (impasse Marie-Guyart)
